--- a/BackTest/2020-01-12 BackTest XSR.xlsx
+++ b/BackTest/2020-01-12 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,1346 +550,1192 @@
         <v>-3931797.381868029</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9571.206</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-3922226.17586803</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.998</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F7" t="n">
+        <v>182712.5666</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-3739513.60926803</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>429615.5806</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-3309898.02866803</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>179540.53</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3309898.02866803</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>35403.6751</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3274494.35356803</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F11" t="n">
+        <v>245383.5023</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3519877.855868029</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7.011</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.011</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.011</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F12" t="n">
+        <v>174780.9151</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-3694658.770968029</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>166037.2669821048</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-3528621.503985925</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="F14" t="n">
+        <v>160449.9797</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-3689071.483685925</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.027</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.027</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.027</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.027</v>
+      </c>
+      <c r="F15" t="n">
+        <v>128638.0537</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-3560433.429985925</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="F16" t="n">
+        <v>357813.3898</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3202620.040185925</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>276972.2759</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-3479592.316085924</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25762.7658</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-3453829.550285924</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8515.9362</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3453829.550285924</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.947</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.863</v>
+      </c>
+      <c r="F20" t="n">
+        <v>596686.9635</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4050516.513785924</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F21" t="n">
+        <v>374387.6021</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-4424904.115885925</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F22" t="n">
+        <v>72</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4424832.115885925</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6.979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.979</v>
+      </c>
+      <c r="F23" t="n">
+        <v>163351.5946</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4424832.115885925</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F24" t="n">
+        <v>17150.8362</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-4424832.115885925</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F25" t="n">
+        <v>52438.3038</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-4372393.812085925</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6.934</v>
+      </c>
+      <c r="F26" t="n">
+        <v>114144.2172</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-4486538.029285925</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F27" t="n">
+        <v>295488.7429</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4191049.286385925</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8215.9899</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4191049.286385925</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="F29" t="n">
+        <v>72</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-4190977.286385925</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.984</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.029</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6.984</v>
+      </c>
+      <c r="F30" t="n">
+        <v>126636.4174</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4190977.286385925</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="F31" t="n">
+        <v>163629.3998</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4354606.686185924</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>6.987</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.987</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.987</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6.987</v>
+      </c>
+      <c r="F32" t="n">
+        <v>229170.3837</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-4583777.069885924</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>6.987</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.988</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F33" t="n">
+        <v>204639.4973</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-4788416.567185924</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F34" t="n">
+        <v>161.353</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-4788416.567185924</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="F35" t="n">
+        <v>353949.094</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-4434467.473185925</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-4404467.473185925</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6.965</v>
+      </c>
+      <c r="F37" t="n">
+        <v>369433.2434</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-4773900.716585925</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="F38" t="n">
+        <v>370.3212</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-4774271.037785925</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.946</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.946</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.946</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.946</v>
+      </c>
+      <c r="F39" t="n">
+        <v>326459.2468</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-5100730.284585925</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.949</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.946</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.949</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6.946</v>
+      </c>
+      <c r="F40" t="n">
+        <v>267306.3404</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-5100730.284585925</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.946</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9571.206</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-3922226.17586803</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.947</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.998</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.998</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="F7" t="n">
-        <v>182712.5666</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-3739513.60926803</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F8" t="n">
-        <v>429615.5806</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-3309898.02866803</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.998</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="F9" t="n">
-        <v>179540.53</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-3309898.02866803</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.044</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.044</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="F10" t="n">
-        <v>35403.6751</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-3274494.35356803</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7.044</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.041</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.044</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F11" t="n">
-        <v>245383.5023</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-3519877.855868029</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7.011</v>
-      </c>
-      <c r="C12" t="n">
-        <v>7.011</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7.011</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="F12" t="n">
-        <v>174780.9151</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-3694658.770968029</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6.999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.041</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.041</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>166037.2669821048</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-3528621.503985925</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7.016</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.016</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7.016</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.016</v>
-      </c>
-      <c r="F14" t="n">
-        <v>160449.9797</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-3689071.483685925</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>7.027</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7.027</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.027</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.027</v>
-      </c>
-      <c r="F15" t="n">
-        <v>128638.0537</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-3560433.429985925</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="F16" t="n">
-        <v>357813.3898</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-3202620.040185925</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>276972.2759</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-3479592.316085924</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6.999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="F18" t="n">
-        <v>25762.7658</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-3453829.550285924</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.028</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8515.9362</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-3453829.550285924</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6.947</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.863</v>
-      </c>
-      <c r="F20" t="n">
-        <v>596686.9635</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-4050516.513785924</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6.934</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.934</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="F21" t="n">
-        <v>374387.6021</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-4424904.115885925</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F22" t="n">
-        <v>72</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-4424832.115885925</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.934</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>6.979</v>
-      </c>
-      <c r="C23" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6.979</v>
-      </c>
-      <c r="F23" t="n">
-        <v>163351.5946</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-4424832.115885925</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="D24" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F24" t="n">
-        <v>17150.8362</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-4424832.115885925</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6.997</v>
-      </c>
-      <c r="F25" t="n">
-        <v>52438.3038</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-4372393.812085925</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="C26" t="n">
-        <v>6.934</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.934</v>
-      </c>
-      <c r="F26" t="n">
-        <v>114144.2172</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-4486538.029285925</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C27" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="D27" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="E27" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="F27" t="n">
-        <v>295488.7429</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-4191049.286385925</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C28" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="F28" t="n">
-        <v>8215.9899</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-4191049.286385925</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="F29" t="n">
-        <v>72</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-4190977.286385925</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>6.984</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6.984</v>
-      </c>
-      <c r="F30" t="n">
-        <v>126636.4174</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-4190977.286385925</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="F31" t="n">
-        <v>163629.3998</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-4354606.686185924</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>6.987</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6.987</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6.987</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6.987</v>
-      </c>
-      <c r="F32" t="n">
-        <v>229170.3837</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-4583777.069885924</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>6.987</v>
-      </c>
-      <c r="C33" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6.988</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="F33" t="n">
-        <v>204639.4973</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-4788416.567185924</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.987</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="D34" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="E34" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="F34" t="n">
-        <v>161.353</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-4788416.567185924</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C35" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="F35" t="n">
-        <v>353949.094</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-4434467.473185925</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="F36" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-4404467.473185925</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>6.965</v>
-      </c>
-      <c r="C37" t="n">
-        <v>6.965</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6.965</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6.965</v>
-      </c>
-      <c r="F37" t="n">
-        <v>369433.2434</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-4773900.716585925</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="E38" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="F38" t="n">
-        <v>370.3212</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-4774271.037785925</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.965</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>6.946</v>
-      </c>
-      <c r="C39" t="n">
-        <v>6.946</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6.946</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6.946</v>
-      </c>
-      <c r="F39" t="n">
-        <v>326459.2468</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-5100730.284585925</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.951</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>6.949</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6.946</v>
-      </c>
-      <c r="D40" t="n">
-        <v>6.949</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6.946</v>
-      </c>
-      <c r="F40" t="n">
-        <v>267306.3404</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-5100730.284585925</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.946</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1923,7 +1769,9 @@
       <c r="I41" t="n">
         <v>6.946</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1962,7 +1810,9 @@
       <c r="I42" t="n">
         <v>6.88</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2001,7 +1851,9 @@
       <c r="I43" t="n">
         <v>6.88</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,7 +1892,9 @@
       <c r="I44" t="n">
         <v>6.934</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2079,7 +1933,9 @@
       <c r="I45" t="n">
         <v>6.98</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2113,12 +1969,12 @@
         <v>-4320460.906887109</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2157,7 +2013,9 @@
       <c r="I47" t="n">
         <v>6.881</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2191,12 +2049,12 @@
         <v>-4608848.476587109</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2235,7 +2093,9 @@
       <c r="I49" t="n">
         <v>6.892</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,7 +2134,9 @@
       <c r="I50" t="n">
         <v>6.89</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2313,7 +2175,9 @@
       <c r="I51" t="n">
         <v>6.895</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,7 +2216,9 @@
       <c r="I52" t="n">
         <v>6.895</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2391,7 +2257,9 @@
       <c r="I53" t="n">
         <v>6.895</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,7 +2298,9 @@
       <c r="I54" t="n">
         <v>6.894</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2469,7 +2339,9 @@
       <c r="I55" t="n">
         <v>6.895</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,7 +2380,9 @@
       <c r="I56" t="n">
         <v>6.891</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2547,7 +2421,9 @@
       <c r="I57" t="n">
         <v>6.895</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2586,7 +2462,9 @@
       <c r="I58" t="n">
         <v>6.895</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2625,7 +2503,9 @@
       <c r="I59" t="n">
         <v>6.895</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,7 +2544,9 @@
       <c r="I60" t="n">
         <v>6.894</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,7 +2585,9 @@
       <c r="I61" t="n">
         <v>6.895</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2742,7 +2626,9 @@
       <c r="I62" t="n">
         <v>6.99</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2781,7 +2667,9 @@
       <c r="I63" t="n">
         <v>6.99</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2820,7 +2708,9 @@
       <c r="I64" t="n">
         <v>6.99</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2859,7 +2749,9 @@
       <c r="I65" t="n">
         <v>6.995</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2893,12 +2785,12 @@
         <v>-5452820.44018711</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6.995</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,12 +2824,12 @@
         <v>-5452820.44018711</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2971,12 +2863,12 @@
         <v>-5443346.081985925</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,12 +2902,12 @@
         <v>-5443346.081985925</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3049,12 +2941,12 @@
         <v>-5654855.325785926</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7.029</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3088,12 +2980,12 @@
         <v>-5908172.563385925</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,7 +3022,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3061,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,7 +3100,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,12 +3136,12 @@
         <v>-5803233.883285926</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.011</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,12 +3175,12 @@
         <v>-5831108.027685925</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.014</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,12 +3214,12 @@
         <v>-5831108.027685925</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,12 +3253,12 @@
         <v>-5548767.619985925</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,7 +3297,9 @@
       <c r="I79" t="n">
         <v>6.975</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,7 +3338,9 @@
       <c r="I80" t="n">
         <v>6.95</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,7 +3379,9 @@
       <c r="I81" t="n">
         <v>6.992</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,12 +3415,12 @@
         <v>-5216828.159736785</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7.008</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,12 +3454,12 @@
         <v>-5216828.159736785</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6.992</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3594,7 +3498,9 @@
       <c r="I84" t="n">
         <v>6.992</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3633,7 +3539,9 @@
       <c r="I85" t="n">
         <v>6.985</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3672,7 +3580,9 @@
       <c r="I86" t="n">
         <v>6.985</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,12 +3616,12 @@
         <v>-5135876.519236785</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.987</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3750,7 +3660,9 @@
       <c r="I88" t="n">
         <v>7.014</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,7 +3699,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,7 +3738,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,7 +3777,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3898,7 +3816,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,7 +3855,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,7 +3894,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,7 +3933,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,7 +3972,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4083,7 +4011,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,7 +4050,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4157,7 +4089,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,7 +4128,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,7 +4167,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4268,7 +4206,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4305,7 +4245,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,7 +4284,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4379,7 +4323,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,7 +4362,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,7 +4401,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,7 +4440,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4527,7 +4479,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4561,12 +4515,12 @@
         <v>-4611628.515887646</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>7.113</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4603,7 +4557,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,7 +4596,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,7 +4635,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,7 +4674,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4751,7 +4713,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,7 +4752,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,7 +4791,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,7 +4830,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,7 +4869,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,7 +4908,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,7 +4986,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,7 +5025,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5084,7 +5064,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5121,7 +5103,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5158,7 +5142,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5195,7 +5181,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5232,7 +5220,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,7 +5259,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,7 +5298,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5343,7 +5337,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5380,7 +5376,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5417,7 +5415,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,7 +5454,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5491,7 +5493,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5528,7 +5532,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5565,7 +5571,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5602,7 +5610,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,7 +5649,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5676,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,7 +5727,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5750,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5787,7 +5805,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,7 +5844,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5861,7 +5883,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5898,7 +5922,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5935,7 +5961,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5972,7 +6000,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,7 +6039,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,7 +6078,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6083,7 +6117,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,7 +6156,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6157,7 +6195,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,7 +6234,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,7 +6273,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,7 +6312,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,7 +6351,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6342,7 +6390,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,7 +6429,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6416,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,7 +6507,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,7 +6546,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6527,7 +6585,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6564,7 +6624,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6601,7 +6663,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6638,7 +6702,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6675,7 +6741,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,7 +6780,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,7 +6819,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6786,7 +6858,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6823,7 +6897,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6860,7 +6936,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,7 +6975,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6934,7 +7014,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6971,7 +7053,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,7 +7092,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7045,7 +7131,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7082,7 +7170,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,7 +7209,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,7 +7248,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7193,7 +7287,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7230,7 +7326,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7267,7 +7365,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7304,7 +7404,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7341,7 +7443,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7378,7 +7482,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7415,7 +7521,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7452,7 +7560,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,7 +7599,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7526,7 +7638,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7563,7 +7677,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,7 +7716,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,7 +7755,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,7 +7794,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7711,7 +7833,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,7 +7872,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,7 +7911,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7822,7 +7950,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7859,7 +7989,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7896,7 +8028,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7933,7 +8067,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7970,7 +8106,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8007,7 +8145,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8044,7 +8184,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8081,7 +8223,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8118,7 +8262,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8155,7 +8301,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,7 +8340,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8229,7 +8379,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,7 +8418,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8303,7 +8457,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,7 +8496,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8377,7 +8535,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8414,7 +8574,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,7 +8613,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8488,7 +8652,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8525,7 +8691,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,7 +8730,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,7 +8769,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8636,7 +8808,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,7 +8847,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8710,7 +8886,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8747,7 +8925,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8784,7 +8964,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,7 +9003,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,7 +9042,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8895,7 +9081,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8932,7 +9120,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8969,7 +9159,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9006,7 +9198,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9043,7 +9237,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9080,7 +9276,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,7 +9315,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9154,7 +9354,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,7 +9393,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9228,7 +9432,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9265,7 +9471,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,7 +9510,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,7 +9549,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9376,7 +9588,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9410,12 +9624,12 @@
         <v>3300535.971043841</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9452,7 +9666,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9489,7 +9705,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9526,7 +9744,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9563,7 +9783,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9600,7 +9822,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,7 +9861,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9674,7 +9900,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9711,7 +9939,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9748,7 +9978,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9785,7 +10017,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9822,7 +10056,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9859,7 +10095,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9896,7 +10134,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9933,7 +10173,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,7 +10212,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10007,7 +10251,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10044,7 +10290,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10081,7 +10329,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10118,7 +10368,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10155,7 +10407,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10192,7 +10446,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10229,7 +10485,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10266,7 +10524,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,7 +10563,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,7 +10602,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10377,7 +10641,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10414,7 +10680,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10451,7 +10719,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10488,7 +10758,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10525,7 +10797,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10562,7 +10836,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,7 +10875,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10636,7 +10914,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10673,7 +10953,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10710,7 +10992,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10747,7 +11031,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10784,7 +11070,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,7 +11109,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10858,7 +11148,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10895,7 +11187,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,7 +11226,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10969,7 +11265,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,7 +11304,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11043,7 +11343,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,7 +11382,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,7 +11421,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11154,7 +11460,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11191,7 +11499,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11228,7 +11538,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,7 +11577,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11302,7 +11616,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11339,7 +11655,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11376,7 +11694,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11413,7 +11733,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11450,7 +11772,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11487,7 +11811,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,7 +11850,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11561,7 +11889,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11598,7 +11928,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11635,7 +11967,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11672,7 +12006,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11709,7 +12045,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,7 +12084,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11783,7 +12123,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,7 +12162,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11857,7 +12201,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11894,7 +12240,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11931,7 +12279,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11968,7 +12318,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12005,7 +12357,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12042,7 +12396,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12079,7 +12435,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12116,7 +12474,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12153,7 +12513,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12190,7 +12552,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12227,7 +12591,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12264,7 +12630,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,7 +12669,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,7 +12708,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,7 +12747,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12412,7 +12786,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12449,7 +12825,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12486,7 +12864,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12523,7 +12903,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12560,7 +12942,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12597,7 +12981,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12634,7 +13020,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12671,7 +13059,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12708,7 +13098,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12745,7 +13137,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12782,7 +13176,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12819,7 +13215,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12856,7 +13254,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12893,7 +13293,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12930,7 +13332,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,7 +13371,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13004,7 +13410,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13041,7 +13449,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13078,7 +13488,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13115,7 +13527,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13152,7 +13566,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,7 +13605,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13226,7 +13644,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,7 +13683,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13300,7 +13722,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13337,7 +13761,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13374,7 +13800,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13411,7 +13839,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13448,7 +13878,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13485,7 +13917,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13522,7 +13956,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13559,7 +13995,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13596,7 +14034,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13633,7 +14073,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,7 +14112,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,7 +14151,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13744,7 +14190,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13781,7 +14229,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,7 +14268,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13855,7 +14307,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13892,7 +14346,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13929,7 +14385,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13966,7 +14424,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14003,7 +14463,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14040,7 +14502,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14077,7 +14541,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14114,7 +14580,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14151,7 +14619,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14188,7 +14658,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14225,7 +14697,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14262,7 +14736,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14299,7 +14775,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14336,7 +14814,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14373,7 +14853,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14410,7 +14892,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14447,7 +14931,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14481,19 +14967,23 @@
         <v>20960736.72133835</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>6.98</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
+        <v>1.112335243553009</v>
+      </c>
+      <c r="M378" t="n">
+        <v>1.026373306134343</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -14518,15 +15008,11 @@
         <v>20134446.82433656</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14555,15 +15041,11 @@
         <v>19535893.17193656</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14592,15 +15074,11 @@
         <v>19535893.17193656</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14629,15 +15107,11 @@
         <v>20356801.63923656</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14666,15 +15140,11 @@
         <v>20356801.63923656</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14703,15 +15173,11 @@
         <v>20871933.18353656</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14740,15 +15206,11 @@
         <v>20133813.46123656</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14777,15 +15239,11 @@
         <v>19760407.03803656</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14814,15 +15272,11 @@
         <v>20702793.94768514</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14851,15 +15305,11 @@
         <v>23305717.79796263</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14888,15 +15338,11 @@
         <v>28024404.14363375</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14925,15 +15371,11 @@
         <v>30198089.88554392</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14966,11 +15408,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15003,11 +15441,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15040,11 +15474,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15077,11 +15507,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15114,11 +15540,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15151,11 +15573,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15188,11 +15606,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15225,11 +15639,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15262,11 +15672,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15299,11 +15705,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15336,11 +15738,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15373,11 +15771,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15410,11 +15804,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15447,11 +15837,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15484,11 +15870,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15521,11 +15903,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15558,11 +15936,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15595,11 +15969,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15632,11 +16002,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15669,11 +16035,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15706,11 +16068,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15739,16 +16097,14 @@
         <v>25683999.47944128</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
       <c r="M412" t="inlineStr"/>
     </row>
     <row r="413">
@@ -15774,7 +16130,7 @@
         <v>25658533.62154128</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15873,7 +16229,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15906,7 +16262,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16005,7 +16361,7 @@
         <v>24371313.05354128</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16038,7 +16394,7 @@
         <v>24007099.72164128</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16104,7 +16460,7 @@
         <v>23950246.31621223</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16203,7 +16559,7 @@
         <v>20678095.10691223</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16236,7 +16592,7 @@
         <v>18818374.70431223</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16269,7 +16625,7 @@
         <v>20028335.06901223</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16302,7 +16658,7 @@
         <v>18803906.84701223</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16335,7 +16691,7 @@
         <v>19318240.51721223</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16368,7 +16724,7 @@
         <v>19004429.34531223</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16401,7 +16757,7 @@
         <v>19619007.98291223</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16434,7 +16790,7 @@
         <v>19069849.95051223</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16467,7 +16823,7 @@
         <v>19069849.95051223</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16500,7 +16856,7 @@
         <v>18542991.12141223</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16533,7 +16889,7 @@
         <v>19083971.37831223</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16566,7 +16922,7 @@
         <v>18673995.04821223</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16599,7 +16955,7 @@
         <v>18040391.27421223</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16632,7 +16988,7 @@
         <v>18258074.93771223</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16665,7 +17021,7 @@
         <v>18258074.93771223</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16698,7 +17054,7 @@
         <v>17820891.65591223</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16731,7 +17087,7 @@
         <v>17467233.87781223</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16764,7 +17120,7 @@
         <v>17444938.81581223</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16797,7 +17153,7 @@
         <v>17444938.81581223</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16830,7 +17186,7 @@
         <v>17528927.26741223</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16863,7 +17219,7 @@
         <v>17189445.06291223</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16896,7 +17252,7 @@
         <v>16804526.22791223</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16929,7 +17285,7 @@
         <v>17669478.03501223</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16962,7 +17318,7 @@
         <v>18520769.80811223</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -22077,7 +22433,7 @@
         <v>11245041.34588822</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22110,7 +22466,7 @@
         <v>11193555.99058822</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22143,7 +22499,7 @@
         <v>10949234.72228822</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -25311,7 +25667,7 @@
         <v>19029848.54764629</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25509,7 +25865,7 @@
         <v>17922540.97684629</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25542,7 +25898,7 @@
         <v>17796109.87404628</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25575,7 +25931,7 @@
         <v>17556797.41684629</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25608,7 +25964,7 @@
         <v>17488991.82104629</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25641,7 +25997,7 @@
         <v>17488991.82104629</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25674,7 +26030,7 @@
         <v>17488991.82104629</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25707,7 +26063,7 @@
         <v>17476930.65874628</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25740,7 +26096,7 @@
         <v>17081602.42634628</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25773,7 +26129,7 @@
         <v>17098978.02164628</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25938,7 +26294,7 @@
         <v>17907845.05184628</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26037,7 +26393,7 @@
         <v>17724331.30837935</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26169,7 +26525,7 @@
         <v>17921717.25737935</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26235,7 +26591,7 @@
         <v>17997051.03291241</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26268,7 +26624,7 @@
         <v>18009691.03291241</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26301,7 +26657,7 @@
         <v>18009691.03291241</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26334,7 +26690,7 @@
         <v>18031027.20231241</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26367,7 +26723,7 @@
         <v>17753612.16081242</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26400,7 +26756,7 @@
         <v>17639236.63201242</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26433,7 +26789,7 @@
         <v>17433792.54121242</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26466,7 +26822,7 @@
         <v>16746665.52413134</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26499,7 +26855,7 @@
         <v>15866081.10713134</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26532,7 +26888,7 @@
         <v>15866476.88393134</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26565,7 +26921,7 @@
         <v>15866350.88393134</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26598,7 +26954,7 @@
         <v>15645140.69123134</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26631,7 +26987,7 @@
         <v>15277123.88403134</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26664,7 +27020,7 @@
         <v>15457006.85753134</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26697,7 +27053,7 @@
         <v>15394618.16413134</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26730,7 +27086,7 @@
         <v>15394618.16413134</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26763,7 +27119,7 @@
         <v>15399618.16413134</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26796,7 +27152,7 @@
         <v>15403561.09073134</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26829,7 +27185,7 @@
         <v>15205928.05823134</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26862,7 +27218,7 @@
         <v>15204969.42993134</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26961,7 +27317,7 @@
         <v>15387872.07683134</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26994,7 +27350,7 @@
         <v>15387872.07683134</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27027,7 +27383,7 @@
         <v>15387872.07683134</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27060,7 +27416,7 @@
         <v>15387872.07683134</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27093,7 +27449,7 @@
         <v>15700782.94753134</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27126,7 +27482,7 @@
         <v>13462046.61733134</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27159,7 +27515,7 @@
         <v>13678279.31573134</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27192,7 +27548,7 @@
         <v>13557540.96838176</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27225,7 +27581,7 @@
         <v>13557961.62428176</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27258,7 +27614,7 @@
         <v>13324353.74858176</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27324,7 +27680,7 @@
         <v>12943072.00608176</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27456,7 +27812,7 @@
         <v>12509942.49974879</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27489,7 +27845,7 @@
         <v>12509942.49974879</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27522,7 +27878,7 @@
         <v>12509942.49974879</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27555,7 +27911,7 @@
         <v>12453942.64354879</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -30129,7 +30485,7 @@
         <v>22101854.42352282</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30162,7 +30518,7 @@
         <v>22105554.42352282</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30195,7 +30551,7 @@
         <v>21890434.44232282</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30228,7 +30584,7 @@
         <v>21890434.44232282</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30261,7 +30617,7 @@
         <v>21418603.51152282</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30294,7 +30650,7 @@
         <v>21418603.51152282</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30327,7 +30683,7 @@
         <v>21927661.59193829</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30360,7 +30716,7 @@
         <v>21929111.6479154</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30393,7 +30749,7 @@
         <v>21602584.4966154</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30426,7 +30782,7 @@
         <v>21368302.8520154</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30954,7 +31310,7 @@
         <v>21513943.61191541</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30987,7 +31343,7 @@
         <v>21381652.14951541</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31020,7 +31376,7 @@
         <v>21397980.0449154</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31053,7 +31409,7 @@
         <v>20817904.5917154</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31086,7 +31442,7 @@
         <v>21369466.5175154</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31119,7 +31475,7 @@
         <v>20839440.6906154</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31152,7 +31508,7 @@
         <v>20839440.6906154</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31185,7 +31541,7 @@
         <v>21140768.1511154</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31218,7 +31574,7 @@
         <v>20711925.2766154</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31251,7 +31607,7 @@
         <v>20220485.8595154</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31284,7 +31640,7 @@
         <v>20210123.1118154</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31317,7 +31673,7 @@
         <v>19287793.2703154</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31350,7 +31706,7 @@
         <v>19335552.9723154</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31383,7 +31739,7 @@
         <v>19577570.9018154</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31416,7 +31772,7 @@
         <v>19577506.9018154</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31449,7 +31805,7 @@
         <v>19407533.5582154</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31482,7 +31838,7 @@
         <v>19406652.0528154</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31515,7 +31871,7 @@
         <v>19406652.0528154</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31548,7 +31904,7 @@
         <v>19406652.0528154</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31581,7 +31937,7 @@
         <v>19164807.0344154</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31614,7 +31970,7 @@
         <v>19164807.0344154</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31647,7 +32003,7 @@
         <v>18832415.5987154</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31680,7 +32036,7 @@
         <v>18519349.8352154</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31713,7 +32069,7 @@
         <v>18519723.4406154</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31746,7 +32102,7 @@
         <v>18813081.5759154</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31779,7 +32135,7 @@
         <v>18641619.3479154</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31812,7 +32168,7 @@
         <v>18933284.8558154</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31845,7 +32201,7 @@
         <v>18308088.2492154</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31878,7 +32234,7 @@
         <v>18318850.9497154</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31911,7 +32267,7 @@
         <v>18572385.0416154</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31944,7 +32300,7 @@
         <v>18572385.0416154</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31977,7 +32333,7 @@
         <v>18572496.0416154</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32010,7 +32366,7 @@
         <v>18341778.2373154</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32043,7 +32399,7 @@
         <v>18342192.2233154</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32076,7 +32432,7 @@
         <v>24257589.2883154</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32109,7 +32465,7 @@
         <v>23886097.9477154</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32142,7 +32498,7 @@
         <v>23667069.8768154</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32175,7 +32531,7 @@
         <v>23668881.9786154</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32406,7 +32762,7 @@
         <v>23850992.96154173</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32505,7 +32861,7 @@
         <v>23981829.2750154</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32703,7 +33059,7 @@
         <v>24189723.8972154</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32736,7 +33092,7 @@
         <v>23930360.5217154</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32769,7 +33125,7 @@
         <v>23987243.2309154</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32802,7 +33158,7 @@
         <v>23987243.2309154</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32835,7 +33191,7 @@
         <v>23787040.1171154</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32868,7 +33224,7 @@
         <v>23412564.9019154</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33000,7 +33356,7 @@
         <v>23930937.5516154</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33033,7 +33389,7 @@
         <v>23932819.8457154</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33099,7 +33455,7 @@
         <v>24282425.5963154</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33462,7 +33818,7 @@
         <v>24754595.7203698</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33495,7 +33851,7 @@
         <v>24755261.7203698</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33528,7 +33884,7 @@
         <v>24494838.7792698</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33561,7 +33917,7 @@
         <v>24501802.6431698</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33594,7 +33950,7 @@
         <v>24199088.8630698</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33627,7 +33983,7 @@
         <v>24515327.4592698</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33660,7 +34016,7 @@
         <v>24515262.4592698</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33693,7 +34049,7 @@
         <v>24324334.1588698</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33726,7 +34082,7 @@
         <v>24327299.1588698</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33759,7 +34115,7 @@
         <v>24148292.0032698</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33792,7 +34148,7 @@
         <v>24148836.67058621</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33825,7 +34181,7 @@
         <v>24148836.67058621</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33858,7 +34214,7 @@
         <v>24023154.01658621</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33891,7 +34247,7 @@
         <v>23692541.14708621</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33924,7 +34280,7 @@
         <v>23861705.60178621</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33957,7 +34313,7 @@
         <v>23862624.60178621</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33990,7 +34346,7 @@
         <v>23601039.47608621</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34023,7 +34379,7 @@
         <v>23601039.47608621</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34056,7 +34412,7 @@
         <v>23181965.83368621</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34089,7 +34445,7 @@
         <v>23181965.83368621</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34122,7 +34478,7 @@
         <v>23181965.83368621</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34155,7 +34511,7 @@
         <v>23682218.66345453</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34188,7 +34544,7 @@
         <v>23682218.66345453</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34221,7 +34577,7 @@
         <v>23682318.66345453</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34254,7 +34610,7 @@
         <v>23369533.53205453</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34287,7 +34643,7 @@
         <v>23798634.54185453</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34419,7 +34775,7 @@
         <v>21465389.53547514</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34452,7 +34808,7 @@
         <v>21263921.9169019</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34485,7 +34841,7 @@
         <v>19259550.7344019</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34518,7 +34874,7 @@
         <v>19259550.7344019</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34551,7 +34907,7 @@
         <v>18457509.6268019</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34584,7 +34940,7 @@
         <v>18457509.6268019</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34617,7 +34973,7 @@
         <v>18258665.5228019</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34650,7 +35006,7 @@
         <v>17499328.1516019</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34683,7 +35039,7 @@
         <v>16871504.5647019</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34716,7 +35072,7 @@
         <v>17137808.0661019</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34749,7 +35105,7 @@
         <v>16890195.9574019</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34782,7 +35138,7 @@
         <v>17527345.6840019</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34815,7 +35171,7 @@
         <v>17527345.6840019</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34848,7 +35204,7 @@
         <v>17527345.6840019</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34881,7 +35237,7 @@
         <v>17957748.6470019</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34914,7 +35270,7 @@
         <v>18505412.7672019</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34947,7 +35303,7 @@
         <v>18351463.1269019</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34980,7 +35336,7 @@
         <v>18349707.4861019</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35013,7 +35369,7 @@
         <v>18249575.2117019</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -36267,7 +36623,7 @@
         <v>20471746.87162428</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36366,7 +36722,7 @@
         <v>20734655.07092716</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36399,7 +36755,7 @@
         <v>20734655.07092716</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36432,7 +36788,7 @@
         <v>20467247.31912716</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36465,7 +36821,7 @@
         <v>20467247.31912716</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36498,7 +36854,7 @@
         <v>20779816.83602716</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36531,7 +36887,7 @@
         <v>20988745.67902716</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36564,7 +36920,7 @@
         <v>20988745.67902716</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36630,7 +36986,7 @@
         <v>19972636.15722715</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36828,7 +37184,7 @@
         <v>21362209.96452716</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36861,7 +37217,7 @@
         <v>22952968.24902716</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36894,7 +37250,7 @@
         <v>22952968.24902716</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36927,7 +37283,7 @@
         <v>23179896.00822715</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36960,7 +37316,7 @@
         <v>23048963.68612716</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36993,7 +37349,7 @@
         <v>23048963.68612716</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37026,7 +37382,7 @@
         <v>23347285.95672715</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37059,7 +37415,7 @@
         <v>22612525.06782715</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37092,7 +37448,7 @@
         <v>22612525.06782715</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37125,7 +37481,7 @@
         <v>22612525.06782715</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37158,7 +37514,7 @@
         <v>22612525.06782715</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37191,7 +37547,7 @@
         <v>22426863.93274745</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37224,7 +37580,7 @@
         <v>22053162.14474745</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37257,7 +37613,7 @@
         <v>21922154.35084745</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37290,7 +37646,7 @@
         <v>22625950.28734745</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37323,7 +37679,7 @@
         <v>22087551.14074745</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37356,7 +37712,7 @@
         <v>22375880.19314745</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37389,7 +37745,7 @@
         <v>22179744.12914745</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37422,7 +37778,7 @@
         <v>21949713.93274745</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37455,7 +37811,7 @@
         <v>21949713.93274745</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37488,7 +37844,7 @@
         <v>22449442.80224745</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37521,7 +37877,7 @@
         <v>21685099.44344744</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37554,7 +37910,7 @@
         <v>21685099.44344744</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37587,7 +37943,7 @@
         <v>21425714.52964744</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37620,7 +37976,7 @@
         <v>20405990.54154744</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37653,7 +38009,7 @@
         <v>19748016.20104744</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37686,7 +38042,7 @@
         <v>18832724.60844744</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37719,7 +38075,7 @@
         <v>18733967.52204745</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37752,7 +38108,7 @@
         <v>18709131.69714788</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37785,7 +38141,7 @@
         <v>19647191.12914831</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37818,7 +38174,7 @@
         <v>19710891.22954831</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37851,7 +38207,7 @@
         <v>19710891.22954831</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37950,7 +38306,7 @@
         <v>19258472.95774831</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37983,7 +38339,7 @@
         <v>19249332.78924831</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -40469,6 +40825,6 @@
       <c r="M1161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest XSR.xlsx
+++ b/BackTest/2020-01-12 BackTest XSR.xlsx
@@ -1441,10 +1441,14 @@
         <v>-4583777.069885924</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.008</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1477,8 +1481,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1517,19 @@
         <v>-4788416.567185924</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1558,19 @@
         <v>-4434467.473185925</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1599,19 @@
         <v>-4404467.473185925</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.951</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,15 +1640,17 @@
         <v>-4773900.716585925</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>7.008</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,15 +1679,17 @@
         <v>-4774271.037785925</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.965</v>
+      </c>
       <c r="J38" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1688,11 +1726,11 @@
         <v>6.951</v>
       </c>
       <c r="J39" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1729,11 +1767,11 @@
         <v>6.946</v>
       </c>
       <c r="J40" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1770,7 +1808,7 @@
         <v>6.946</v>
       </c>
       <c r="J41" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1811,7 +1849,7 @@
         <v>6.88</v>
       </c>
       <c r="J42" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1852,7 +1890,7 @@
         <v>6.88</v>
       </c>
       <c r="J43" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1893,7 +1931,7 @@
         <v>6.934</v>
       </c>
       <c r="J44" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1934,7 +1972,7 @@
         <v>6.98</v>
       </c>
       <c r="J45" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1969,11 +2007,13 @@
         <v>-4320460.906887109</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7.008</v>
+      </c>
       <c r="J46" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2014,7 +2054,7 @@
         <v>6.881</v>
       </c>
       <c r="J47" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2049,11 +2089,13 @@
         <v>-4608848.476587109</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7.008</v>
+      </c>
       <c r="J48" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2094,7 +2136,7 @@
         <v>6.892</v>
       </c>
       <c r="J49" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2135,7 +2177,7 @@
         <v>6.89</v>
       </c>
       <c r="J50" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2176,7 +2218,7 @@
         <v>6.895</v>
       </c>
       <c r="J51" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2217,7 +2259,7 @@
         <v>6.895</v>
       </c>
       <c r="J52" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2258,7 +2300,7 @@
         <v>6.895</v>
       </c>
       <c r="J53" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2299,7 +2341,7 @@
         <v>6.894</v>
       </c>
       <c r="J54" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2340,7 +2382,7 @@
         <v>6.895</v>
       </c>
       <c r="J55" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2381,7 +2423,7 @@
         <v>6.891</v>
       </c>
       <c r="J56" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2422,7 +2464,7 @@
         <v>6.895</v>
       </c>
       <c r="J57" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2463,7 +2505,7 @@
         <v>6.895</v>
       </c>
       <c r="J58" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2504,7 +2546,7 @@
         <v>6.895</v>
       </c>
       <c r="J59" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2545,7 +2587,7 @@
         <v>6.894</v>
       </c>
       <c r="J60" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2586,7 +2628,7 @@
         <v>6.895</v>
       </c>
       <c r="J61" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2627,7 +2669,7 @@
         <v>6.99</v>
       </c>
       <c r="J62" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2668,7 +2710,7 @@
         <v>6.99</v>
       </c>
       <c r="J63" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2709,7 +2751,7 @@
         <v>6.99</v>
       </c>
       <c r="J64" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2750,7 +2792,7 @@
         <v>6.995</v>
       </c>
       <c r="J65" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2785,11 +2827,13 @@
         <v>-5452820.44018711</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.995</v>
+      </c>
       <c r="J66" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2824,11 +2868,13 @@
         <v>-5452820.44018711</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6.99</v>
+      </c>
       <c r="J67" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2863,11 +2909,13 @@
         <v>-5443346.081985925</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6.99</v>
+      </c>
       <c r="J68" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2906,7 +2954,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2945,7 +2993,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2984,7 +3032,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3023,7 +3071,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3062,7 +3110,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3101,7 +3149,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3140,7 +3188,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3179,7 +3227,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3218,7 +3266,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3257,7 +3305,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3292,13 +3340,11 @@
         <v>-5593787.860636786</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6.975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3333,13 +3379,11 @@
         <v>-5329829.072336785</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3374,13 +3418,11 @@
         <v>-5032775.368636785</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6.992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3419,7 +3461,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3458,7 +3500,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3493,13 +3535,11 @@
         <v>-5508589.747536785</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3534,13 +3574,11 @@
         <v>-5508589.747536785</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6.985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3575,13 +3613,11 @@
         <v>-5155953.528536785</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6.985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3620,7 +3656,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3655,13 +3691,11 @@
         <v>-5272563.829236785</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>7.014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3700,7 +3734,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3739,7 +3773,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3778,7 +3812,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3817,7 +3851,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3856,7 +3890,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3895,7 +3929,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3934,7 +3968,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3973,7 +4007,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4012,7 +4046,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4051,7 +4085,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4090,7 +4124,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4129,7 +4163,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4168,7 +4202,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4207,7 +4241,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4246,7 +4280,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4285,7 +4319,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4324,7 +4358,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4363,7 +4397,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4402,7 +4436,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4441,7 +4475,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4480,7 +4514,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4519,7 +4553,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4558,7 +4592,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4597,7 +4631,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4636,7 +4670,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4675,7 +4709,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4714,7 +4748,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4753,7 +4787,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4792,7 +4826,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4831,7 +4865,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4870,7 +4904,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4909,7 +4943,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4948,7 +4982,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4987,7 +5021,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5026,7 +5060,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5065,7 +5099,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5104,7 +5138,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5143,7 +5177,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5182,7 +5216,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5221,7 +5255,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5260,7 +5294,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5299,7 +5333,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5338,7 +5372,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5377,7 +5411,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5416,7 +5450,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5455,7 +5489,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5494,7 +5528,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5533,7 +5567,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5572,7 +5606,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5611,7 +5645,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5650,7 +5684,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5689,7 +5723,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5728,7 +5762,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5767,7 +5801,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5806,7 +5840,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5845,7 +5879,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5884,7 +5918,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5923,7 +5957,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5962,7 +5996,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6001,7 +6035,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6040,7 +6074,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6079,7 +6113,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6118,7 +6152,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6157,7 +6191,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6196,7 +6230,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6235,7 +6269,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6274,7 +6308,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6313,7 +6347,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6352,7 +6386,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6391,7 +6425,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6430,7 +6464,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6469,7 +6503,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6508,7 +6542,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6547,7 +6581,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6586,7 +6620,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6625,7 +6659,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6664,7 +6698,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6703,7 +6737,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6742,7 +6776,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6781,7 +6815,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6820,7 +6854,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6859,7 +6893,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6898,7 +6932,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6937,7 +6971,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6976,7 +7010,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7015,7 +7049,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7054,7 +7088,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7093,7 +7127,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7132,7 +7166,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7171,7 +7205,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7210,7 +7244,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7249,7 +7283,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7288,7 +7322,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7327,7 +7361,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7366,7 +7400,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7405,7 +7439,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7444,7 +7478,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7483,7 +7517,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7522,7 +7556,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7561,7 +7595,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7600,7 +7634,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7639,7 +7673,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7678,7 +7712,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7717,7 +7751,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7756,7 +7790,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7795,7 +7829,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7834,7 +7868,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7873,7 +7907,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7912,7 +7946,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7951,7 +7985,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7990,7 +8024,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8029,7 +8063,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8068,7 +8102,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8107,7 +8141,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8146,7 +8180,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8185,7 +8219,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8224,7 +8258,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8263,7 +8297,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8302,7 +8336,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8341,7 +8375,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8380,7 +8414,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8419,7 +8453,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8458,7 +8492,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8497,7 +8531,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8536,7 +8570,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8575,7 +8609,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8614,7 +8648,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8653,7 +8687,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8692,7 +8726,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8731,7 +8765,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8770,7 +8804,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8809,7 +8843,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8848,7 +8882,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8887,7 +8921,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8926,7 +8960,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8965,7 +8999,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9004,7 +9038,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9043,7 +9077,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9082,7 +9116,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9121,7 +9155,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9160,7 +9194,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9199,7 +9233,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9238,7 +9272,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9277,7 +9311,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9316,7 +9350,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9355,7 +9389,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9394,7 +9428,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9433,7 +9467,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9472,7 +9506,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9511,7 +9545,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9550,7 +9584,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9589,7 +9623,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9628,7 +9662,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9667,7 +9701,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9706,7 +9740,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9745,7 +9779,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9784,7 +9818,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9823,7 +9857,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9862,7 +9896,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9901,7 +9935,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9940,7 +9974,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9979,7 +10013,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10018,7 +10052,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10057,7 +10091,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10096,7 +10130,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10135,7 +10169,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10174,7 +10208,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10213,7 +10247,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10252,7 +10286,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10291,7 +10325,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10330,7 +10364,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10369,7 +10403,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10408,7 +10442,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10447,7 +10481,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10486,7 +10520,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10525,7 +10559,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10564,7 +10598,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10603,7 +10637,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10642,7 +10676,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10681,7 +10715,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10720,7 +10754,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10759,7 +10793,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10798,7 +10832,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10837,7 +10871,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10876,7 +10910,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10915,7 +10949,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10954,7 +10988,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10993,7 +11027,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11032,7 +11066,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11071,7 +11105,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11110,7 +11144,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11149,7 +11183,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11188,7 +11222,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11227,7 +11261,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11266,7 +11300,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11305,7 +11339,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11344,7 +11378,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11383,7 +11417,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11422,7 +11456,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11461,7 +11495,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11500,7 +11534,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11539,7 +11573,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11578,7 +11612,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11617,7 +11651,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11656,7 +11690,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11695,7 +11729,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11734,7 +11768,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11773,7 +11807,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11812,7 +11846,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11851,7 +11885,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11890,7 +11924,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11929,7 +11963,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11968,7 +12002,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12007,7 +12041,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12046,7 +12080,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12085,7 +12119,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12124,7 +12158,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12163,7 +12197,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12202,7 +12236,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12241,7 +12275,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12280,7 +12314,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12319,7 +12353,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12358,7 +12392,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12397,7 +12431,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12436,7 +12470,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12475,7 +12509,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12514,7 +12548,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12553,7 +12587,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12592,7 +12626,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12631,7 +12665,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12670,7 +12704,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12709,7 +12743,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12748,7 +12782,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12787,7 +12821,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12826,7 +12860,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12865,7 +12899,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12904,7 +12938,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12943,7 +12977,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12982,7 +13016,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13021,7 +13055,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13060,7 +13094,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13099,7 +13133,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13138,7 +13172,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13177,7 +13211,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13216,7 +13250,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13255,7 +13289,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13294,7 +13328,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13333,7 +13367,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13372,7 +13406,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13411,7 +13445,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13450,7 +13484,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13489,7 +13523,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13528,7 +13562,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13567,7 +13601,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13606,7 +13640,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13645,7 +13679,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13684,7 +13718,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13723,7 +13757,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13762,7 +13796,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13801,7 +13835,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13840,7 +13874,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13879,7 +13913,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13918,7 +13952,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13957,7 +13991,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13996,7 +14030,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14035,7 +14069,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14074,7 +14108,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14113,7 +14147,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14152,7 +14186,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14191,7 +14225,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14230,7 +14264,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14269,7 +14303,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14308,7 +14342,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14347,7 +14381,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14386,7 +14420,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14425,7 +14459,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14464,7 +14498,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14503,7 +14537,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14542,7 +14576,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14581,7 +14615,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14620,7 +14654,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14659,7 +14693,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14698,7 +14732,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14737,7 +14771,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14776,7 +14810,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14815,7 +14849,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14854,7 +14888,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14893,7 +14927,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14932,7 +14966,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14967,782 +15001,920 @@
         <v>20960736.72133835</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>6.98</v>
+        <v>7.008</v>
       </c>
       <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="C379" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D379" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E379" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="F379" t="n">
+        <v>826289.8970017972</v>
+      </c>
+      <c r="G379" t="n">
+        <v>20134446.82433656</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>7.749</v>
+      </c>
+      <c r="C380" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D380" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E380" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F380" t="n">
+        <v>598553.6524</v>
+      </c>
+      <c r="G380" t="n">
+        <v>19535893.17193656</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>7.692</v>
+      </c>
+      <c r="C381" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D381" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="E381" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F381" t="n">
+        <v>164638.6039</v>
+      </c>
+      <c r="G381" t="n">
+        <v>19535893.17193656</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>7.644</v>
+      </c>
+      <c r="C382" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D382" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E382" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F382" t="n">
+        <v>820908.4673</v>
+      </c>
+      <c r="G382" t="n">
+        <v>20356801.63923656</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C383" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="D383" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="E383" t="n">
+        <v>7.716</v>
+      </c>
+      <c r="F383" t="n">
+        <v>492940.2311</v>
+      </c>
+      <c r="G383" t="n">
+        <v>20356801.63923656</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C384" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D384" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E384" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="F384" t="n">
+        <v>515131.5443</v>
+      </c>
+      <c r="G384" t="n">
+        <v>20871933.18353656</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="C385" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D385" t="n">
+        <v>7.788</v>
+      </c>
+      <c r="E385" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F385" t="n">
+        <v>738119.7223</v>
+      </c>
+      <c r="G385" t="n">
+        <v>20133813.46123656</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>7.741</v>
+      </c>
+      <c r="C386" t="n">
+        <v>7.654</v>
+      </c>
+      <c r="D386" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E386" t="n">
+        <v>7.641</v>
+      </c>
+      <c r="F386" t="n">
+        <v>373406.4232</v>
+      </c>
+      <c r="G386" t="n">
+        <v>19760407.03803656</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>7.751</v>
+      </c>
+      <c r="C387" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="D387" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E387" t="n">
+        <v>7.655</v>
+      </c>
+      <c r="F387" t="n">
+        <v>942386.9096485879</v>
+      </c>
+      <c r="G387" t="n">
+        <v>20702793.94768514</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="C388" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D388" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E388" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="F388" t="n">
+        <v>2602923.850277482</v>
+      </c>
+      <c r="G388" t="n">
+        <v>23305717.79796263</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C389" t="n">
+        <v>8.097</v>
+      </c>
+      <c r="D389" t="n">
+        <v>8.137</v>
+      </c>
+      <c r="E389" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="F389" t="n">
+        <v>4718686.345671126</v>
+      </c>
+      <c r="G389" t="n">
+        <v>28024404.14363375</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="C390" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="D390" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="E390" t="n">
+        <v>8.097</v>
+      </c>
+      <c r="F390" t="n">
+        <v>2173685.741910163</v>
+      </c>
+      <c r="G390" t="n">
+        <v>30198089.88554392</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C391" t="n">
+        <v>8.058</v>
+      </c>
+      <c r="D391" t="n">
+        <v>8.244999999999999</v>
+      </c>
+      <c r="E391" t="n">
+        <v>7.986</v>
+      </c>
+      <c r="F391" t="n">
+        <v>2389193.9817</v>
+      </c>
+      <c r="G391" t="n">
+        <v>27808895.90384392</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>8</v>
+      </c>
+      <c r="C392" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D392" t="n">
+        <v>8.055999999999999</v>
+      </c>
+      <c r="E392" t="n">
+        <v>7.986</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1200016.3213</v>
+      </c>
+      <c r="G392" t="n">
+        <v>26608879.58254392</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C393" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="D393" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="E393" t="n">
+        <v>7.986</v>
+      </c>
+      <c r="F393" t="n">
+        <v>2466287.719232292</v>
+      </c>
+      <c r="G393" t="n">
+        <v>26608879.58254392</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="C394" t="n">
+        <v>7.999</v>
+      </c>
+      <c r="D394" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="E394" t="n">
+        <v>7.832</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1268630.3415</v>
+      </c>
+      <c r="G394" t="n">
+        <v>25340249.24104392</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>7.999</v>
+      </c>
+      <c r="C395" t="n">
+        <v>7.999</v>
+      </c>
+      <c r="D395" t="n">
+        <v>8.031000000000001</v>
+      </c>
+      <c r="E395" t="n">
+        <v>7.996</v>
+      </c>
+      <c r="F395" t="n">
+        <v>822249.8289</v>
+      </c>
+      <c r="G395" t="n">
+        <v>25340249.24104392</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>7.999</v>
+      </c>
+      <c r="C396" t="n">
+        <v>7.911</v>
+      </c>
+      <c r="D396" t="n">
+        <v>8.000999999999999</v>
+      </c>
+      <c r="E396" t="n">
+        <v>7.902</v>
+      </c>
+      <c r="F396" t="n">
+        <v>408022.0898</v>
+      </c>
+      <c r="G396" t="n">
+        <v>24932227.15124392</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>7.997</v>
+      </c>
+      <c r="C397" t="n">
+        <v>7.877</v>
+      </c>
+      <c r="D397" t="n">
+        <v>7.997</v>
+      </c>
+      <c r="E397" t="n">
+        <v>7.877</v>
+      </c>
+      <c r="F397" t="n">
+        <v>644477.137</v>
+      </c>
+      <c r="G397" t="n">
+        <v>24287750.01424392</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="C398" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D398" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E398" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1105636.1708</v>
+      </c>
+      <c r="G398" t="n">
+        <v>25393386.18504392</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C399" t="n">
+        <v>7.958</v>
+      </c>
+      <c r="D399" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E399" t="n">
+        <v>7.882</v>
+      </c>
+      <c r="F399" t="n">
+        <v>351862.6693</v>
+      </c>
+      <c r="G399" t="n">
+        <v>25041523.51574392</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>7.958</v>
+      </c>
+      <c r="C400" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="D400" t="n">
+        <v>7.958</v>
+      </c>
+      <c r="E400" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="F400" t="n">
+        <v>177532.3828562202</v>
+      </c>
+      <c r="G400" t="n">
+        <v>24863991.1328877</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="C401" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D401" t="n">
+        <v>7.947</v>
+      </c>
+      <c r="E401" t="n">
+        <v>7.881</v>
+      </c>
+      <c r="F401" t="n">
+        <v>558861.7789</v>
+      </c>
+      <c r="G401" t="n">
+        <v>24305129.3539877</v>
+      </c>
+      <c r="H401" t="n">
+        <v>2</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="K401" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L378" t="n">
-        <v>1.112335243553009</v>
-      </c>
-      <c r="M378" t="n">
+      <c r="L401" t="n">
+        <v>1.122283105022831</v>
+      </c>
+      <c r="M401" t="n">
         <v>1.026373306134343</v>
       </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="C379" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="D379" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="E379" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="F379" t="n">
-        <v>826289.8970017972</v>
-      </c>
-      <c r="G379" t="n">
-        <v>20134446.82433656</v>
-      </c>
-      <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>7.749</v>
-      </c>
-      <c r="C380" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D380" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="E380" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F380" t="n">
-        <v>598553.6524</v>
-      </c>
-      <c r="G380" t="n">
-        <v>19535893.17193656</v>
-      </c>
-      <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>7.692</v>
-      </c>
-      <c r="C381" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D381" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="E381" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F381" t="n">
-        <v>164638.6039</v>
-      </c>
-      <c r="G381" t="n">
-        <v>19535893.17193656</v>
-      </c>
-      <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>7.644</v>
-      </c>
-      <c r="C382" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="D382" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E382" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F382" t="n">
-        <v>820908.4673</v>
-      </c>
-      <c r="G382" t="n">
-        <v>20356801.63923656</v>
-      </c>
-      <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C383" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="D383" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="E383" t="n">
-        <v>7.716</v>
-      </c>
-      <c r="F383" t="n">
-        <v>492940.2311</v>
-      </c>
-      <c r="G383" t="n">
-        <v>20356801.63923656</v>
-      </c>
-      <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C384" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="D384" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="E384" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="F384" t="n">
-        <v>515131.5443</v>
-      </c>
-      <c r="G384" t="n">
-        <v>20871933.18353656</v>
-      </c>
-      <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="C385" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="D385" t="n">
-        <v>7.788</v>
-      </c>
-      <c r="E385" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="F385" t="n">
-        <v>738119.7223</v>
-      </c>
-      <c r="G385" t="n">
-        <v>20133813.46123656</v>
-      </c>
-      <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>7.741</v>
-      </c>
-      <c r="C386" t="n">
-        <v>7.654</v>
-      </c>
-      <c r="D386" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="E386" t="n">
-        <v>7.641</v>
-      </c>
-      <c r="F386" t="n">
-        <v>373406.4232</v>
-      </c>
-      <c r="G386" t="n">
-        <v>19760407.03803656</v>
-      </c>
-      <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>7.751</v>
-      </c>
-      <c r="C387" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="D387" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E387" t="n">
-        <v>7.655</v>
-      </c>
-      <c r="F387" t="n">
-        <v>942386.9096485879</v>
-      </c>
-      <c r="G387" t="n">
-        <v>20702793.94768514</v>
-      </c>
-      <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="C388" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D388" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="E388" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="F388" t="n">
-        <v>2602923.850277482</v>
-      </c>
-      <c r="G388" t="n">
-        <v>23305717.79796263</v>
-      </c>
-      <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C389" t="n">
-        <v>8.097</v>
-      </c>
-      <c r="D389" t="n">
-        <v>8.137</v>
-      </c>
-      <c r="E389" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F389" t="n">
-        <v>4718686.345671126</v>
-      </c>
-      <c r="G389" t="n">
-        <v>28024404.14363375</v>
-      </c>
-      <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="C390" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="D390" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E390" t="n">
-        <v>8.097</v>
-      </c>
-      <c r="F390" t="n">
-        <v>2173685.741910163</v>
-      </c>
-      <c r="G390" t="n">
-        <v>30198089.88554392</v>
-      </c>
-      <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C391" t="n">
-        <v>8.058</v>
-      </c>
-      <c r="D391" t="n">
-        <v>8.244999999999999</v>
-      </c>
-      <c r="E391" t="n">
-        <v>7.986</v>
-      </c>
-      <c r="F391" t="n">
-        <v>2389193.9817</v>
-      </c>
-      <c r="G391" t="n">
-        <v>27808895.90384392</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>8</v>
-      </c>
-      <c r="C392" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D392" t="n">
-        <v>8.055999999999999</v>
-      </c>
-      <c r="E392" t="n">
-        <v>7.986</v>
-      </c>
-      <c r="F392" t="n">
-        <v>1200016.3213</v>
-      </c>
-      <c r="G392" t="n">
-        <v>26608879.58254392</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="C393" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="D393" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E393" t="n">
-        <v>7.986</v>
-      </c>
-      <c r="F393" t="n">
-        <v>2466287.719232292</v>
-      </c>
-      <c r="G393" t="n">
-        <v>26608879.58254392</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="C394" t="n">
-        <v>7.999</v>
-      </c>
-      <c r="D394" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E394" t="n">
-        <v>7.832</v>
-      </c>
-      <c r="F394" t="n">
-        <v>1268630.3415</v>
-      </c>
-      <c r="G394" t="n">
-        <v>25340249.24104392</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>7.999</v>
-      </c>
-      <c r="C395" t="n">
-        <v>7.999</v>
-      </c>
-      <c r="D395" t="n">
-        <v>8.031000000000001</v>
-      </c>
-      <c r="E395" t="n">
-        <v>7.996</v>
-      </c>
-      <c r="F395" t="n">
-        <v>822249.8289</v>
-      </c>
-      <c r="G395" t="n">
-        <v>25340249.24104392</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>7.999</v>
-      </c>
-      <c r="C396" t="n">
-        <v>7.911</v>
-      </c>
-      <c r="D396" t="n">
-        <v>8.000999999999999</v>
-      </c>
-      <c r="E396" t="n">
-        <v>7.902</v>
-      </c>
-      <c r="F396" t="n">
-        <v>408022.0898</v>
-      </c>
-      <c r="G396" t="n">
-        <v>24932227.15124392</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>7.997</v>
-      </c>
-      <c r="C397" t="n">
-        <v>7.877</v>
-      </c>
-      <c r="D397" t="n">
-        <v>7.997</v>
-      </c>
-      <c r="E397" t="n">
-        <v>7.877</v>
-      </c>
-      <c r="F397" t="n">
-        <v>644477.137</v>
-      </c>
-      <c r="G397" t="n">
-        <v>24287750.01424392</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="C398" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="D398" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E398" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="F398" t="n">
-        <v>1105636.1708</v>
-      </c>
-      <c r="G398" t="n">
-        <v>25393386.18504392</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="C399" t="n">
-        <v>7.958</v>
-      </c>
-      <c r="D399" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="E399" t="n">
-        <v>7.882</v>
-      </c>
-      <c r="F399" t="n">
-        <v>351862.6693</v>
-      </c>
-      <c r="G399" t="n">
-        <v>25041523.51574392</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>7.958</v>
-      </c>
-      <c r="C400" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="D400" t="n">
-        <v>7.958</v>
-      </c>
-      <c r="E400" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="F400" t="n">
-        <v>177532.3828562202</v>
-      </c>
-      <c r="G400" t="n">
-        <v>24863991.1328877</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="C401" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="D401" t="n">
-        <v>7.947</v>
-      </c>
-      <c r="E401" t="n">
-        <v>7.881</v>
-      </c>
-      <c r="F401" t="n">
-        <v>558861.7789</v>
-      </c>
-      <c r="G401" t="n">
-        <v>24305129.3539877</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -15767,7 +15939,7 @@
         <v>23081104.9289877</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15965,7 +16137,7 @@
         <v>25025901.26592646</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15998,7 +16170,7 @@
         <v>24331262.20674128</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16031,7 +16203,7 @@
         <v>24736468.26754128</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16064,7 +16236,7 @@
         <v>24138559.23674128</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16097,7 +16269,7 @@
         <v>25683999.47944128</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16130,7 +16302,7 @@
         <v>25658533.62154128</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16229,7 +16401,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16262,7 +16434,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16361,7 +16533,7 @@
         <v>24371313.05354128</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16394,7 +16566,7 @@
         <v>24007099.72164128</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16427,7 +16599,7 @@
         <v>23877283.94901223</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -22433,7 +22605,7 @@
         <v>11245041.34588822</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22466,7 +22638,7 @@
         <v>11193555.99058822</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22499,7 +22671,7 @@
         <v>10949234.72228822</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -25139,7 +25311,7 @@
         <v>26625152.01322667</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25172,7 +25344,7 @@
         <v>26625152.01322667</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25205,7 +25377,7 @@
         <v>23616110.08012667</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25238,7 +25410,7 @@
         <v>23023828.31262667</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -25271,7 +25443,7 @@
         <v>22658756.33722667</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -25304,7 +25476,7 @@
         <v>22703380.88892667</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -25337,7 +25509,7 @@
         <v>22988798.75724629</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -25370,7 +25542,7 @@
         <v>23164610.86064629</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25403,7 +25575,7 @@
         <v>22546792.55004629</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25436,7 +25608,7 @@
         <v>22708982.10414629</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -25469,7 +25641,7 @@
         <v>22281108.50764629</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25502,7 +25674,7 @@
         <v>22102576.69024629</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25535,7 +25707,7 @@
         <v>22220913.12434629</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25568,7 +25740,7 @@
         <v>21755636.96014629</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25601,7 +25773,7 @@
         <v>19389504.25914629</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25634,7 +25806,7 @@
         <v>19029848.54764629</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25667,7 +25839,7 @@
         <v>19029848.54764629</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25700,7 +25872,7 @@
         <v>19095360.85514629</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25733,7 +25905,7 @@
         <v>18816460.77454629</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25766,7 +25938,7 @@
         <v>18699256.04734629</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25799,7 +25971,7 @@
         <v>18756828.12304629</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25832,7 +26004,7 @@
         <v>18610470.75084629</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25865,7 +26037,7 @@
         <v>17922540.97684629</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25898,7 +26070,7 @@
         <v>17796109.87404628</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25931,7 +26103,7 @@
         <v>17556797.41684629</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25964,7 +26136,7 @@
         <v>17488991.82104629</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26096,7 +26268,7 @@
         <v>17081602.42634628</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -29957,7 +30129,7 @@
         <v>25361747.68464836</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29990,7 +30162,7 @@
         <v>26049478.03544836</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30023,7 +30195,7 @@
         <v>25086844.83308765</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30056,7 +30228,7 @@
         <v>24415541.92618765</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30089,7 +30261,7 @@
         <v>24567192.32118765</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30122,7 +30294,7 @@
         <v>24229848.41658765</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30155,7 +30327,7 @@
         <v>21474201.04658765</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30188,7 +30360,7 @@
         <v>21930963.21688765</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30221,7 +30393,7 @@
         <v>21394001.02578765</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30254,7 +30426,7 @@
         <v>21751496.87638765</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30320,7 +30492,7 @@
         <v>21741584.76558765</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30617,7 +30789,7 @@
         <v>21418603.51152282</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30650,7 +30822,7 @@
         <v>21418603.51152282</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30683,7 +30855,7 @@
         <v>21927661.59193829</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30716,7 +30888,7 @@
         <v>21929111.6479154</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30749,7 +30921,7 @@
         <v>21602584.4966154</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30782,7 +30954,7 @@
         <v>21368302.8520154</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30815,7 +30987,7 @@
         <v>21367983.8247154</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30848,7 +31020,7 @@
         <v>21369195.7995154</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30881,7 +31053,7 @@
         <v>21147344.4084154</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30914,7 +31086,7 @@
         <v>21228852.2941154</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30980,7 +31152,7 @@
         <v>21556893.8963154</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
